--- a/src/test/resources/test_reader.xlsx
+++ b/src/test/resources/test_reader.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22044" windowHeight="9900"/>
+    <workbookView windowWidth="28800" windowHeight="12750"/>
   </bookViews>
   <sheets>
     <sheet name="RECORDS" sheetId="1" r:id="rId1"/>
@@ -14,51 +14,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>C5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>av2231fwg</t>
+  </si>
+  <si>
+    <t>Brown Purse</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>r23fwf2w3</t>
+  </si>
+  <si>
+    <t>Pink Purse</t>
+  </si>
+  <si>
+    <t>mbvjkgip5</t>
+  </si>
+  <si>
+    <t>Galaxy Earrings</t>
+  </si>
+  <si>
+    <t>f230fh0g3</t>
+  </si>
+  <si>
+    <t>Bamboo Watch</t>
+  </si>
+  <si>
+    <t>244wgerg2</t>
+  </si>
+  <si>
+    <t>Blue T-Shirt</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>waas1x2as</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>zz21cz3c1</t>
+  </si>
+  <si>
+    <t>Blue Band</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>v435nn85n</t>
+  </si>
+  <si>
+    <t>Mini Speakers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -71,9 +111,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,14 +149,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,23 +170,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,45 +230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,16 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,13 +255,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,13 +269,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,13 +347,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,151 +419,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,17 +460,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,7 +482,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,9 +519,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,8 +531,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,159 +551,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1024,63 +1069,185 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A1" sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="E8" s="3">
+        <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3">
+        <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
